--- a/data/case1/11/Q1_14.xlsx
+++ b/data/case1/11/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.22304712877402721</v>
+        <v>0.2267693919272773</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999926970645</v>
+        <v>-0.00599999994276601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999329385361</v>
+        <v>-0.054267379449688846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998781197235</v>
+        <v>-0.0079999999032835944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999308900627</v>
+        <v>-0.0029999999434258129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999216100406</v>
+        <v>-0.0019999999378477185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998250748234</v>
+        <v>-0.00999999986268163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998223370135</v>
+        <v>-0.0099999998580160288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999153674786</v>
+        <v>-0.001999999925454965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999139894697</v>
+        <v>-0.001999999919904738</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999020793311</v>
+        <v>-0.002999999910118234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999998960927314</v>
+        <v>-0.0034999999042524266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998966620538</v>
+        <v>-0.0034999998984917013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998437063624</v>
+        <v>-0.0079999998555964069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999992831367734</v>
+        <v>-0.00099999991858901183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.021531464312980031</v>
+        <v>-0.0019999999084143738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999169932892</v>
+        <v>-0.001999999906892036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998928159641</v>
+        <v>-0.0039999998881734555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.05569696087797027</v>
+        <v>-0.0039999999610644821</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999423656618</v>
+        <v>-0.0039999999583066881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0076323409983736212</v>
+        <v>-0.0039999999578750334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999409472409</v>
+        <v>-0.0039999999575321965</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999166434606</v>
+        <v>-0.0049999999332568379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999730164753</v>
+        <v>-0.01999999979063638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999726382889</v>
+        <v>-0.019999999787942535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999137875761</v>
+        <v>-0.0024999999325672206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.041960699684209679</v>
+        <v>-0.0024999999314014865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998858244439</v>
+        <v>-0.0019999999303959015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999807533186</v>
+        <v>-0.0069999998808532027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999169771723</v>
+        <v>-0.059999999394992454</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999997926348811</v>
+        <v>0.00071251223041990386</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997560917819</v>
+        <v>-0.0099999998593318651</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998270570103</v>
+        <v>0.047993854734903252</v>
       </c>
     </row>
   </sheetData>
